--- a/data/tweets-pops-para-categorizar.xlsx
+++ b/data/tweets-pops-para-categorizar.xlsx
@@ -365,12 +365,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>autor_username</t>
+          <t>author_username</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>autor_name</t>
+          <t>author_name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
